--- a/Pugh_Matrix_Motor.xlsx
+++ b/Pugh_Matrix_Motor.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>Quality</t>
   </si>
@@ -93,13 +94,67 @@
   </si>
   <si>
     <t>Wheel Radius</t>
+  </si>
+  <si>
+    <t>17H185-04A Stepper Calculations</t>
+  </si>
+  <si>
+    <t>Pugh Matrix: Sensor Suite</t>
+  </si>
+  <si>
+    <t>Encoder Only</t>
+  </si>
+  <si>
+    <t>Potentiometer Only</t>
+  </si>
+  <si>
+    <t>IMU MPU-6050 Only</t>
+  </si>
+  <si>
+    <t>Encoder +  Potentiometer</t>
+  </si>
+  <si>
+    <t>MPU-6050 +  Potentiometer</t>
+  </si>
+  <si>
+    <t>Encoder +  MPU-6050</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>Pugh Matrix: Controller</t>
+  </si>
+  <si>
+    <t>State Feedback</t>
+  </si>
+  <si>
+    <t>State Feedback w/ Integral Action</t>
+  </si>
+  <si>
+    <t>PI Controller</t>
+  </si>
+  <si>
+    <t>Setup Speed</t>
+  </si>
+  <si>
+    <t>Tuning Required</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>Level of Knowledge Required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +164,32 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <color rgb="FFE7EDF0"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF3E6F89"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3E6F89"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFE7EDF0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFE7EDF0"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -130,18 +201,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF3E6F89"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor rgb="FFE7EDF0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -151,270 +222,142 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFC5D3DB"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFC5D3DB"/>
       </right>
       <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC5D3DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC5D3DB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="double">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF3E6F89"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF3E6F89"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF3E6F89"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF3E6F89"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF3E6F89"/>
       </left>
       <right/>
       <top/>
@@ -422,101 +365,310 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC5D3DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC5D3DB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC5D3DB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC5D3DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF3E6F89"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,6 +676,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3E6F89"/>
+      <color rgb="FFC5D3DB"/>
+      <color rgb="FFE7EDF0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -569,6 +728,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3E6F89"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -648,7 +812,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
             <a:t>Choice</a:t>
           </a:r>
         </a:p>
@@ -717,9 +887,658 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
+            <a:rPr lang="en-AU" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
             <a:t>Factors</a:t>
           </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="3E6F89"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1273098</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1031488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B2199-F155-4566-9FCF-10CADFFFDFA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="611909" y="369455"/>
+          <a:ext cx="1273098" cy="1031488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3E6F89"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520390</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1192561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>359317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F332E5C3-2294-4F89-8B06-139E839A1E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1132299" y="505747"/>
+          <a:ext cx="672171" cy="223025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Choice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112132</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>675887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784303</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>898912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C89C18-35AE-45DE-9FD4-520294E5BB7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724041" y="1045342"/>
+          <a:ext cx="672171" cy="223025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Factors</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="3E6F89"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1273098</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1031488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D59A190-0CA1-40D7-AE90-10B9A2CE8BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="611909" y="369455"/>
+          <a:ext cx="1273098" cy="1031488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3E6F89"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520390</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1192561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>359317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3318FA-CEAA-4A44-B962-F3A189F60422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1132299" y="505747"/>
+          <a:ext cx="672171" cy="223025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Choice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112132</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>675887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>784303</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>898912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86AE48A-C1E6-4FA3-A2B0-35773EE5691E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724041" y="1045342"/>
+          <a:ext cx="672171" cy="223025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Factors</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="3E6F89"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1273098</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1031488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00AC690-C30A-40D8-8DE3-9350EF75BEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9582727" y="369455"/>
+          <a:ext cx="1273098" cy="1031488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3E6F89"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520390</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1192561</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>359317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68DAD7D-1790-44B6-A71E-633A2DC9E344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10103117" y="505747"/>
+          <a:ext cx="672171" cy="223025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Choice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112132</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>675887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784303</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>898912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A724D8-1022-4385-8678-7D616CB2D2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9694859" y="1045342"/>
+          <a:ext cx="672171" cy="223025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3E6F89"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Factors</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="3E6F89"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1025,435 +1844,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F20376B-42D1-47C6-B00E-3423DC71A09B}">
-  <dimension ref="B1:R30"/>
+  <dimension ref="B1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="5" width="4.6328125" customWidth="1"/>
     <col min="6" max="6" width="2.6328125" customWidth="1"/>
     <col min="7" max="7" width="4.6328125" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="14" width="4.6328125" customWidth="1"/>
+    <col min="15" max="16" width="16.6328125" customWidth="1"/>
+    <col min="18" max="18" width="18.6328125" customWidth="1"/>
+    <col min="19" max="21" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="2:21" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:12" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="28"/>
+    </row>
+    <row r="2" spans="2:21" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
+    </row>
+    <row r="4" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6">
-        <v>1.8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7">
-        <f>K6/4</f>
-        <v>0.45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="K8">
-        <f>K7*0.0174533</f>
-        <v>7.8539850000000008E-3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="2:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="2:21" ht="4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+    </row>
+    <row r="12" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="17" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="15:16" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O20" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O21" s="16">
+        <f>O20/4</f>
+        <v>0.45</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O22" s="16">
+        <f>O21*0.0174533</f>
+        <v>7.8539850000000008E-3</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O23" s="16">
         <v>600</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P23" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <f>K9*K8</f>
+    <row r="24" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O24" s="16">
+        <f>O23*O22</f>
         <v>4.7123910000000002</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P24" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="K12">
-        <f>K10/PI()</f>
+    <row r="25" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O25" s="16">
+        <f>O24/PI()</f>
         <v>1.5000006428635195</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P25" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="K13">
-        <f>K12*60</f>
+    <row r="26" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O26" s="16">
+        <f>O25*60</f>
         <v>90.000038571811174</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P26" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="K14">
+    <row r="27" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O27" s="16">
         <f>88*10^-3</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P27" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="K15">
-        <f>K14*K13*0.10472</f>
+    <row r="28" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="17">
+        <f>O27*O26*0.10472</f>
         <v>0.82938275545312568</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P28" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="O18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="8:18" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H19" s="32"/>
-      <c r="I19" s="34"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
-    </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H20" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H21" s="25">
-        <f>H20/4</f>
-        <v>0.45</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="25">
-        <f>O20/4</f>
-        <v>0.45</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H22" s="25">
-        <f>H21*0.0174533</f>
-        <v>7.8539850000000008E-3</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="25">
-        <f>O21*0.0174533</f>
-        <v>7.8539850000000008E-3</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H23" s="25">
-        <v>600</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="25">
-        <v>600</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-    </row>
-    <row r="24" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H24" s="25">
-        <f>H23*H22</f>
-        <v>4.7123910000000002</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="25">
-        <f>O23*O22</f>
-        <v>4.7123910000000002</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27"/>
-    </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H26" s="25">
-        <f>H24/PI()</f>
-        <v>1.5000006428635195</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="25">
-        <f>O24/PI()</f>
-        <v>1.5000006428635195</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
-    </row>
-    <row r="27" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H27" s="25">
-        <f>H26*60</f>
-        <v>90.000038571811174</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="25">
-        <f>O26*60</f>
-        <v>90.000038571811174</v>
-      </c>
-      <c r="P27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
-    </row>
-    <row r="28" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H28" s="25">
-        <f>88*10^-3</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="25">
-        <f>88*10^-3</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="27"/>
-    </row>
-    <row r="29" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="25">
-        <f>H28*H27*0.10472</f>
-        <v>0.82938275545312568</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="25">
-        <f>O28*O27*0.10472</f>
-        <v>0.82938275545312568</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="31"/>
-    </row>
-    <row r="30" spans="8:18" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H30" s="32"/>
-      <c r="I30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="34"/>
+    <row r="29" spans="15:16" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="2:5" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="6"/>
+      <c r="C35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="H11:N11"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pugh_Matrix_Motor.xlsx
+++ b/Pugh_Matrix_Motor.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>Quality</t>
   </si>
@@ -145,6 +145,162 @@
   </si>
   <si>
     <t>Level of Knowledge Required</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Module Type:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Filename:</t>
+  </si>
+  <si>
+    <t>Circular Buffer </t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Impliments a fixed-size buffer data structure for use in buffering our command data stream in the UART module.</t>
+  </si>
+  <si>
+    <t>circ_buffer.c</t>
+  </si>
+  <si>
+    <t>Command Line Buffer</t>
+  </si>
+  <si>
+    <t>Impliments the Buffer to be used in the Command Parser module</t>
+  </si>
+  <si>
+    <t>cmd_line_buffer.c</t>
+  </si>
+  <si>
+    <t>Command Parser</t>
+  </si>
+  <si>
+    <t>Handles Input received from UART in the Main module</t>
+  </si>
+  <si>
+    <t>cmd_parser.c</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Calculates our Linearised Controller to be executed in the Main module</t>
+  </si>
+  <si>
+    <t>controller.c</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Handles Encoder input</t>
+  </si>
+  <si>
+    <t>encoder.c</t>
+  </si>
+  <si>
+    <t>Encoder Interrupt Service Routine</t>
+  </si>
+  <si>
+    <t>Handles Encoder ISRs</t>
+  </si>
+  <si>
+    <t>encoder_isr.c</t>
+  </si>
+  <si>
+    <t>Log Data</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Outputs requested Logged Data to console</t>
+  </si>
+  <si>
+    <t>log_data.c</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>The core program that runs on startup</t>
+  </si>
+  <si>
+    <t>main.c</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>Handles Potentiometer input</t>
+  </si>
+  <si>
+    <t>potentiometer.c</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>Reserved for Startup self-checks, initialisation routines and serial handshake</t>
+  </si>
+  <si>
+    <t>Startup.c</t>
+  </si>
+  <si>
+    <t>Stepper</t>
+  </si>
+  <si>
+    <t>Handles Stepper Output</t>
+  </si>
+  <si>
+    <t>stepper.c</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Establishes a 100Hz Loop for time-critical tasks</t>
+  </si>
+  <si>
+    <t>task.c</t>
+  </si>
+  <si>
+    <t>Task Interrupt Service Routine</t>
+  </si>
+  <si>
+    <t>Handles Task ISRs</t>
+  </si>
+  <si>
+    <t>task_isr.c</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>Handles UART communications</t>
+  </si>
+  <si>
+    <t>uart.c</t>
+  </si>
+  <si>
+    <t>UART Interrupt Service Routine</t>
+  </si>
+  <si>
+    <t>Handles UART ISRs</t>
+  </si>
+  <si>
+    <t>uart_isr.c</t>
   </si>
 </sst>
 </file>
@@ -154,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +347,12 @@
       <color rgb="FFE7EDF0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFE7EDF0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -212,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -553,11 +715,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC5D3DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC5D3DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3E6F89"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3E6F89"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3E6F89"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,6 +821,39 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,33 +869,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,6 +882,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1844,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F20376B-42D1-47C6-B00E-3423DC71A09B}">
-  <dimension ref="B1:U41"/>
+  <dimension ref="B1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="H39" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1861,6 +2099,10 @@
     <col min="15" max="16" width="16.6328125" customWidth="1"/>
     <col min="18" max="18" width="18.6328125" customWidth="1"/>
     <col min="19" max="21" width="4.6328125" customWidth="1"/>
+    <col min="25" max="25" width="16.6328125" customWidth="1"/>
+    <col min="26" max="26" width="12.6328125" customWidth="1"/>
+    <col min="27" max="27" width="24.6328125" customWidth="1"/>
+    <col min="28" max="28" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -1872,14 +2114,14 @@
       <c r="E1" s="28"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="18"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1944,13 +2186,13 @@
       <c r="E3" s="31"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="5"/>
@@ -2257,25 +2499,25 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" ht="4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
     </row>
     <row r="12" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
@@ -2323,10 +2565,10 @@
     </row>
     <row r="17" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="25"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="15:16" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O19" s="8"/>
@@ -2415,8 +2657,8 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="2:28" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="26" t="s">
         <v>32</v>
       </c>
@@ -2424,7 +2666,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="2:5" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:28" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>33</v>
@@ -2436,13 +2678,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:28" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
@@ -2454,7 +2696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
@@ -2466,7 +2708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
@@ -2478,7 +2720,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
@@ -2490,11 +2732,248 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+    <row r="41" spans="2:28" ht="4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="43" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y44" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA44" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB44" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="44"/>
+    </row>
+    <row r="46" spans="2:28" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA46" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB46" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y47" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z47" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB47" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB48" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="25:28" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y49" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z49" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA49" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB49" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="25:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z50" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA50" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB50" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA51" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB51" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y52" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA52" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB52" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y53" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA53" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB53" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="25:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y54" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA54" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB54" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="25:28" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y55" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA55" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB55" s="45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="25:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y56" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA56" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB56" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y57" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z57" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA57" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB57" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y58" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA58" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB58" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y59" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA59" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB59" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="25:28" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y60" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA60" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB60" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="25:28" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
